--- a/airflow/data_analysis/classify_elastic/structured_data/excels_infraestructuras_generales/AenaTenerifeNorte.xlsx
+++ b/airflow/data_analysis/classify_elastic/structured_data/excels_infraestructuras_generales/AenaTenerifeNorte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TodosDestinos" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="51">
   <si>
     <t xml:space="preserve">Aeropuerto</t>
   </si>
@@ -277,13 +277,13 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+      <selection pane="topLeft" activeCell="D52" activeCellId="1" sqref="A10:B10 D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -668,15 +668,15 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -702,7 +702,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
@@ -718,7 +724,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
@@ -734,12 +746,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
       </c>
@@ -755,7 +779,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="0" t="s">
         <v>11</v>
       </c>
@@ -1087,14 +1117,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="A10:B10 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1161,14 +1191,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="A10:B10 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1213,14 +1243,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A10:B10 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
